--- a/methane protocol/dat/ref_emis.xlsx
+++ b/methane protocol/dat/ref_emis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AU277187\Documents\GitHub\ABM_carbon_accounting\paper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/AU-MHB/methane protocol/dat/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_70D1198C4BC8402356E5688C6943C2E01931230B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38895F3C-0FFA-4E92-BA58-55E31F6E8F05}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref_emis" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
   <si>
     <t>CH4</t>
   </si>
@@ -38,11 +39,17 @@
   <si>
     <t>animal</t>
   </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>g/pig/day</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -842,284 +849,386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16.3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>26.6</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.2</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.0999999999999996</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28.5</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7.4</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.5</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.9000000000000004</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25.5</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19.100000000000001</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17.7</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30.9</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10.5</v>
       </c>
       <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>73.599999999999994</v>
       </c>
       <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>140.4</v>
       </c>
       <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>57.46</v>
       </c>
       <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13.1</v>
       </c>
       <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24.1</v>
       </c>
       <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35.6</v>
       </c>
       <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>30.1</v>
       </c>
       <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>52.8</v>
       </c>
       <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>47.2</v>
       </c>
       <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29.2</v>
       </c>
       <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.93</v>
       </c>
       <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.86</v>
       </c>
       <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.9</v>
       </c>
       <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.23</v>
       </c>
       <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1129,6 +1238,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100010BCB8FDA3789478577C31581FA3B2F" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="f292e6a414670b17f73bfa0928db04e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cd6032e-4b27-47f4-bb02-403eeb79ffb0" xmlns:ns3="51017e06-3185-4484-8ddc-2b23098c8f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31239af3d6d5239002168564422d4159" ns2:_="" ns3:_="">
     <xsd:import namespace="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
@@ -1333,19 +1451,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DC0FDC2-21BC-402B-A21C-C6A804057BA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FDD8D3E-9623-4A06-BE6B-6CEC0A0D26AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FDD8D3E-9623-4A06-BE6B-6CEC0A0D26AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DC0FDC2-21BC-402B-A21C-C6A804057BA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
+    <ds:schemaRef ds:uri="51017e06-3185-4484-8ddc-2b23098c8f10"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>